--- a/Latviesu.xlsx
+++ b/Latviesu.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\Coverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0142C337-01C3-47EF-A04C-3D9E5A6D992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD871FA2-4716-42E9-AA22-498C8F666F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="645" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Dog" sheetId="3" r:id="rId3"/>
+    <sheet name="Cat" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +27,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Столбец5</t>
+  </si>
+  <si>
+    <t>Столбец6</t>
+  </si>
+  <si>
+    <t>Один</t>
+  </si>
+  <si>
+    <t>Восемь</t>
+  </si>
+  <si>
+    <t>Пятнцадать</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Latviešu</t>
+  </si>
+  <si>
+    <t>Semen</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Tamara</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +81,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,13 +112,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -72,6 +135,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43139036-8D58-448C-A41C-4A4435FDD5F6}" name="Таблица1" displayName="Таблица1" ref="B4:H16" totalsRowShown="0" headerRowCellStyle="Нейтральный" dataCellStyle="Нейтральный">
+  <autoFilter ref="B4:H16" xr:uid="{43139036-8D58-448C-A41C-4A4435FDD5F6}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{0ED48804-2DA4-4123-8879-88E086707B4E}" name="Столбец2" dataCellStyle="Нейтральный"/>
+    <tableColumn id="3" xr3:uid="{76EA9068-30B6-412F-8455-4500BF9CD27B}" name="Восемь" dataCellStyle="Нейтральный"/>
+    <tableColumn id="4" xr3:uid="{9EC84F52-E94B-4465-9BB5-534486B9EC52}" name="Пятнцадать" dataCellStyle="Нейтральный"/>
+    <tableColumn id="5" xr3:uid="{68DDA716-BE15-461C-8BDC-C1A999C91859}" name="Столбец5" dataCellStyle="Нейтральный"/>
+    <tableColumn id="6" xr3:uid="{67D1C371-90F1-42C7-83F1-A3415F79BDFF}" name="Столбец6" dataCellStyle="Нейтральный"/>
+    <tableColumn id="1" xr3:uid="{FF7CE853-B91D-47DA-BFD7-A2BB12332DFC}" name="Столбец1" dataCellStyle="Нейтральный"/>
+    <tableColumn id="7" xr3:uid="{AC207EF6-1860-4002-9FC9-9DC657452D0D}" name="Один" dataCellStyle="Нейтральный"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,32 +416,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7A3AB0-F785-4BE6-B9F0-0F5FE95DCE6F}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4220397-E1FF-4D35-9408-33F94E7241EA}">
+  <dimension ref="B2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>515</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>1123</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>12314</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>515</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>12414</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BFB22A-58ED-4178-BE6F-BE59B6C67D60}">
+  <dimension ref="A2:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1312</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
